--- a/biology/Médecine/Examen_parasitologique_des_selles/Examen_parasitologique_des_selles.xlsx
+++ b/biology/Médecine/Examen_parasitologique_des_selles/Examen_parasitologique_des_selles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Un examen parasitologique des selles (EPS) est une analyse de laboratoire de parasitologie concernant les selles. Cet examen vise à rechercher la présence de parasites dans les selles. La notion de voyage dans une zone à risque (région tropicale ou intertropicale avec hygiène précaire) est un élément essentiel à prendre en compte pour l'analyse[1].
-Cet examen peut être indiqué en cas de diarrhée aiguë persistante ou chronique, de douleur abdominale, de trouble digestif divers (anorexie, boulimie, nausée, dyspepsie, ténesme, prurit anal) ou d'hyperéosinophilie[1].
-Les principaux parasites pathogènes qui peuvent être mis en évidence sont[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Un examen parasitologique des selles (EPS) est une analyse de laboratoire de parasitologie concernant les selles. Cet examen vise à rechercher la présence de parasites dans les selles. La notion de voyage dans une zone à risque (région tropicale ou intertropicale avec hygiène précaire) est un élément essentiel à prendre en compte pour l'analyse.
+Cet examen peut être indiqué en cas de diarrhée aiguë persistante ou chronique, de douleur abdominale, de trouble digestif divers (anorexie, boulimie, nausée, dyspepsie, ténesme, prurit anal) ou d'hyperéosinophilie.
+Les principaux parasites pathogènes qui peuvent être mis en évidence sont :
 des protozoaires :
 Entamoeba histolytica, agent de l'amœbose,
 Giardia intestinalis, agent de la giardiase,
@@ -502,7 +514,7 @@
 des ankylostomes, agents de l'ankylostomose,
 Strongyloides stercoralis, agent de l'anguillulose,
 Trichuris trichiura, agent de la trichocéphalose.
-A contrario, plusieurs parasites parfois retrouvés sont réputés non pathogènes[1] :
+A contrario, plusieurs parasites parfois retrouvés sont réputés non pathogènes :
 parmi les amibes : Entamoeba coli, Entamoeba hartmanni, Entamoeba polecki, Entamoeba dispar, Endolimax nanus, Pseudolimax (Iodamoeba) butschlii ;
 parmi les flagellés : Pentatrichomonas humanis, Chilomastix mesnili, Retortamonas intestinalis, Enteromonas hominis, Dientamoeba fragilis ;
 parmi les coccidies : Sarcocystis hominis ;
@@ -534,7 +546,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b c et d Société nationale française de gastro-entérologie, société française de médecine générale, société française de microbiologie, [PDF] Indications des examens de selles chez l'adulte, 2003
